--- a/.excel/Problema_2.xlsx
+++ b/.excel/Problema_2.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd9e606cfa9768e2/1_ Universidad/Programación y Control de la Producción/Taller_2_Rozo_Leon_Monsalve/.excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="366" documentId="11_F25DC773A252ABDACC1048C381DC70265BDE58FC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B19BC900-054B-4DE3-A53F-ED8CD0F0B0E2}"/>
+  <xr:revisionPtr revIDLastSave="569" documentId="11_F25DC773A252ABDACC1048C381DC70265BDE58FC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EB1A1FB-BCA1-40DC-AA50-370C94CD91DA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="a)" sheetId="1" r:id="rId1"/>
-    <sheet name="b" sheetId="3" r:id="rId2"/>
+    <sheet name="a)" sheetId="4" r:id="rId1"/>
+    <sheet name="b)" sheetId="3" r:id="rId2"/>
     <sheet name="c)" sheetId="2" r:id="rId3"/>
+    <sheet name="i" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>Trabajos</t>
   </si>
@@ -114,15 +115,56 @@
 MIN Z = MAX(CIJ)</t>
   </si>
   <si>
-    <t>['J12', 'J9', 'J13', 'J5', 'J11', 'J18', 'J10', 'J20', 'J14', 'J1', 'J7', 'J19', 'J2', 'J6', 'J17', 'J3', 'J4', 'J15', 'J8', 'J16']</t>
+    <t>The sequence of jobs is: ['J12', 'J13', 'J10', 'J18', 'J7', 'J20', 'J19', 'J1', 'J8', 'J6', 'J16', 'J15', 'J2', 'J3', 'J4', 'J14', 'J11', 'J17', 'J5', 'J9']</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>B&amp;B</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>Cmax</t>
+  </si>
+  <si>
+    <t>mean(S1)</t>
+  </si>
+  <si>
+    <t>mean(S2)</t>
+  </si>
+  <si>
+    <t>mean(S3)</t>
+  </si>
+  <si>
+    <t>mean(C1)</t>
+  </si>
+  <si>
+    <t>mean(C2)</t>
+  </si>
+  <si>
+    <t>mean(C3)</t>
+  </si>
+  <si>
+    <t>Sum(Idle)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -244,7 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,11 +566,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0B4071-82A0-4988-A11F-3C774767826C}">
+  <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:U22"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,7 +578,7 @@
     <col min="21" max="21" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F1" s="10" t="s">
         <v>12</v>
       </c>
@@ -562,7 +604,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -607,10 +649,10 @@
       <c r="T2" s="9"/>
       <c r="U2">
         <f>MAX(R3:T22)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -640,17 +682,17 @@
         <v>28</v>
       </c>
       <c r="K3" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L3" s="3" cm="1">
         <f t="array" ref="L3:N3">VLOOKUP(K3,$A$2:$D$22,{2,3,4})</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M3" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N3" s="4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O3" s="3">
         <f>0</f>
@@ -658,26 +700,38 @@
       </c>
       <c r="P3" s="1">
         <f>MAX(R3,S2)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q3" s="4">
         <f>MAX(S3,T2)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R3" s="3">
         <f>O3+L3</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S3" s="1">
-        <f t="shared" ref="S3" si="0">P3+M3</f>
-        <v>11</v>
+        <f t="shared" ref="S3:T18" si="0">P3+M3</f>
+        <v>13</v>
       </c>
       <c r="T3" s="4">
         <f>Q3+N3</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="V3">
+        <f>-R3+O4</f>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:X18" si="1">-S3+P4</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -691,11 +745,11 @@
         <v>12</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F22" si="1">B4+C4</f>
+        <f t="shared" ref="F4:G22" si="2">B4+C4</f>
         <v>29</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G22" si="2">C4+D4</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="H4">
@@ -707,44 +761,56 @@
         <v>22</v>
       </c>
       <c r="K4" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L4" s="3" cm="1">
         <f t="array" ref="L4:N4">VLOOKUP(K4,$A$2:$D$22,{2,3,4})</f>
         <v>4</v>
       </c>
       <c r="M4" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N4" s="4">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="O4" s="3">
         <f>R3</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" ref="P4:P22" si="3">MAX(R4,S3)</f>
-        <v>11</v>
+        <f t="shared" ref="P4:Q22" si="3">MAX(R4,S3)</f>
+        <v>13</v>
       </c>
       <c r="Q4" s="4">
-        <f t="shared" ref="Q4:Q22" si="4">MAX(S4,T3)</f>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>26</v>
       </c>
       <c r="R4" s="3">
-        <f t="shared" ref="R4:R22" si="5">O4+L4</f>
-        <v>10</v>
+        <f t="shared" ref="R4:T22" si="4">O4+L4</f>
+        <v>8</v>
       </c>
       <c r="S4" s="1">
-        <f t="shared" ref="S4:S22" si="6">P4+M4</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="T4" s="4">
-        <f t="shared" ref="T4:T21" si="7">Q4+N4</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V21" si="5">-R4+O5</f>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -758,7 +824,7 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="G5">
@@ -766,253 +832,301 @@
         <v>27</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H22" si="8">_xlfn.RANK.EQ(F5,$F$3:$G$22,1)</f>
+        <f t="shared" ref="H5:I22" si="6">_xlfn.RANK.EQ(F5,$F$3:$G$22,1)</f>
         <v>36</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I22" si="9">_xlfn.RANK.EQ(G5,$F$3:$G$22,1)</f>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="K5" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L5" s="3" cm="1">
         <f t="array" ref="L5:N5">VLOOKUP(K5,$A$2:$D$22,{2,3,4})</f>
+        <v>7</v>
+      </c>
+      <c r="M5" s="1">
+        <v>12</v>
+      </c>
+      <c r="N5" s="4">
+        <v>11</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" ref="O5:O22" si="7">R4</f>
+        <v>8</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="Q5" s="4">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="T5" s="4">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="M5" s="1">
-        <v>13</v>
-      </c>
-      <c r="N5" s="4">
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="K6" s="2">
+        <v>18</v>
+      </c>
+      <c r="L6" s="3" cm="1">
+        <f t="array" ref="L6:N6">VLOOKUP(K6,$A$2:$D$22,{2,3,4})</f>
+        <v>15</v>
+      </c>
+      <c r="M6" s="1">
+        <v>5</v>
+      </c>
+      <c r="N6" s="4">
+        <v>16</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="Q6" s="4">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="T6" s="4">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="K7" s="2">
+        <v>7</v>
+      </c>
+      <c r="L7" s="3" cm="1">
+        <f t="array" ref="L7:N7">VLOOKUP(K7,$A$2:$D$22,{2,3,4})</f>
+        <v>11</v>
+      </c>
+      <c r="M7" s="1">
+        <v>10</v>
+      </c>
+      <c r="N7" s="4">
+        <v>19</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="Q7" s="4">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="T7" s="4">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="O5" s="3">
-        <f t="shared" ref="O5:O22" si="10">R4</f>
-        <v>10</v>
-      </c>
-      <c r="P5" s="1">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="Q5" s="4">
-        <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="R5" s="3">
-        <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="S5" s="1">
+      <c r="I8">
         <f t="shared" si="6"/>
         <v>33</v>
       </c>
-      <c r="T5" s="4">
-        <f t="shared" si="7"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="8"/>
-        <v>36</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="9"/>
-        <v>18</v>
-      </c>
-      <c r="K6" s="2">
-        <v>10</v>
-      </c>
-      <c r="L6" s="3" cm="1">
-        <f t="array" ref="L6:N6">VLOOKUP(K6,$A$2:$D$22,{2,3,4})</f>
-        <v>7</v>
-      </c>
-      <c r="M6" s="1">
-        <v>12</v>
-      </c>
-      <c r="N6" s="4">
-        <v>11</v>
-      </c>
-      <c r="O6" s="3">
-        <f t="shared" si="10"/>
-        <v>14</v>
-      </c>
-      <c r="P6" s="1">
-        <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="Q6" s="4">
-        <f t="shared" si="4"/>
-        <v>59</v>
-      </c>
-      <c r="R6" s="3">
-        <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="S6" s="1">
-        <f t="shared" si="6"/>
-        <v>45</v>
-      </c>
-      <c r="T6" s="4">
-        <f t="shared" si="7"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="K7" s="2">
-        <v>18</v>
-      </c>
-      <c r="L7" s="3" cm="1">
-        <f t="array" ref="L7:N7">VLOOKUP(K7,$A$2:$D$22,{2,3,4})</f>
-        <v>15</v>
-      </c>
-      <c r="M7" s="1">
-        <v>5</v>
-      </c>
-      <c r="N7" s="4">
-        <v>16</v>
-      </c>
-      <c r="O7" s="3">
-        <f t="shared" si="10"/>
-        <v>21</v>
-      </c>
-      <c r="P7" s="1">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="Q7" s="4">
-        <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="R7" s="3">
-        <f t="shared" si="5"/>
-        <v>36</v>
-      </c>
-      <c r="S7" s="1">
-        <f t="shared" si="6"/>
-        <v>50</v>
-      </c>
-      <c r="T7" s="4">
-        <f t="shared" si="7"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>19</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="8"/>
-        <v>26</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="9"/>
-        <v>33</v>
-      </c>
       <c r="K8" s="2">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="L8" s="3" cm="1">
         <f t="array" ref="L8:N8">VLOOKUP(K8,$A$2:$D$22,{2,3,4})</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M8" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N8" s="4">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O8" s="3">
-        <f t="shared" si="10"/>
-        <v>36</v>
+        <f t="shared" si="7"/>
+        <v>41</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="4">
-        <f t="shared" si="4"/>
-        <v>86</v>
+        <f t="shared" si="3"/>
+        <v>98</v>
       </c>
       <c r="R8" s="3">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="T8" s="4">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="V8">
         <f t="shared" si="5"/>
-        <v>47</v>
-      </c>
-      <c r="S8" s="1">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="T8" s="4">
-        <f t="shared" si="7"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1026,7 +1140,7 @@
         <v>19</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="G9">
@@ -1034,52 +1148,64 @@
         <v>29</v>
       </c>
       <c r="H9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="I9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="K9" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L9" s="3" cm="1">
         <f t="array" ref="L9:N9">VLOOKUP(K9,$A$2:$D$22,{2,3,4})</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M9" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N9" s="4">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="O9" s="3">
-        <f t="shared" si="10"/>
-        <v>47</v>
+        <f t="shared" si="7"/>
+        <v>49</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="Q9" s="4">
-        <f t="shared" si="4"/>
-        <v>105</v>
+        <f t="shared" si="3"/>
+        <v>112</v>
       </c>
       <c r="R9" s="3">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="T9" s="4">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="V9">
         <f t="shared" si="5"/>
-        <v>55</v>
-      </c>
-      <c r="S9" s="1">
-        <f t="shared" si="6"/>
-        <v>73</v>
-      </c>
-      <c r="T9" s="4">
-        <f t="shared" si="7"/>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1093,7 +1219,7 @@
         <v>21</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="G10">
@@ -1101,52 +1227,64 @@
         <v>34</v>
       </c>
       <c r="H10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="I10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="K10" s="2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="L10" s="3" cm="1">
         <f t="array" ref="L10:N10">VLOOKUP(K10,$A$2:$D$22,{2,3,4})</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M10" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N10" s="4">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O10" s="3">
-        <f t="shared" si="10"/>
-        <v>55</v>
+        <f t="shared" si="7"/>
+        <v>56</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" si="3"/>
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="Q10" s="4">
-        <f t="shared" si="4"/>
-        <v>119</v>
+        <f t="shared" si="3"/>
+        <v>133</v>
       </c>
       <c r="R10" s="3">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="T10" s="4">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="V10">
         <f t="shared" si="5"/>
-        <v>62</v>
-      </c>
-      <c r="S10" s="1">
-        <f t="shared" si="6"/>
-        <v>89</v>
-      </c>
-      <c r="T10" s="4">
-        <f t="shared" si="7"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1160,7 +1298,7 @@
         <v>5</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="G11">
@@ -1168,11 +1306,11 @@
         <v>10</v>
       </c>
       <c r="H11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="I11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K11" s="2">
@@ -1189,31 +1327,43 @@
         <v>21</v>
       </c>
       <c r="O11" s="3">
-        <f t="shared" si="10"/>
-        <v>62</v>
+        <f t="shared" si="7"/>
+        <v>70</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="3"/>
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Q11" s="4">
-        <f t="shared" si="4"/>
-        <v>140</v>
+        <f t="shared" si="3"/>
+        <v>150</v>
       </c>
       <c r="R11" s="3">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="T11" s="4">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="V11">
         <f t="shared" si="5"/>
-        <v>76</v>
-      </c>
-      <c r="S11" s="1">
-        <f t="shared" si="6"/>
-        <v>102</v>
-      </c>
-      <c r="T11" s="4">
-        <f t="shared" si="7"/>
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1227,7 +1377,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="G12">
@@ -1235,11 +1385,11 @@
         <v>23</v>
       </c>
       <c r="H12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="K12" s="2">
@@ -1256,31 +1406,43 @@
         <v>19</v>
       </c>
       <c r="O12" s="3">
-        <f t="shared" si="10"/>
-        <v>76</v>
+        <f t="shared" si="7"/>
+        <v>84</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="3"/>
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="Q12" s="4">
-        <f t="shared" si="4"/>
-        <v>161</v>
+        <f t="shared" si="3"/>
+        <v>171</v>
       </c>
       <c r="R12" s="3">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="T12" s="4">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="V12">
         <f t="shared" si="5"/>
-        <v>89</v>
-      </c>
-      <c r="S12" s="1">
-        <f t="shared" si="6"/>
-        <v>117</v>
-      </c>
-      <c r="T12" s="4">
-        <f t="shared" si="7"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1294,7 +1456,7 @@
         <v>6</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="G13">
@@ -1302,52 +1464,64 @@
         <v>19</v>
       </c>
       <c r="H13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="I13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="K13" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L13" s="3" cm="1">
         <f t="array" ref="L13:N13">VLOOKUP(K13,$A$2:$D$22,{2,3,4})</f>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M13" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N13" s="4">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="O13" s="3">
-        <f t="shared" si="10"/>
-        <v>89</v>
+        <f t="shared" si="7"/>
+        <v>97</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="3"/>
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q13" s="4">
-        <f t="shared" si="4"/>
-        <v>180</v>
+        <f t="shared" si="3"/>
+        <v>190</v>
       </c>
       <c r="R13" s="3">
+        <f t="shared" si="4"/>
+        <v>118</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="T13" s="4">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+      <c r="V13">
         <f t="shared" si="5"/>
-        <v>102</v>
-      </c>
-      <c r="S13" s="1">
-        <f t="shared" si="6"/>
-        <v>132</v>
-      </c>
-      <c r="T13" s="4">
-        <f t="shared" si="7"/>
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1361,7 +1535,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="G14">
@@ -1369,52 +1543,64 @@
         <v>22</v>
       </c>
       <c r="H14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="I14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="K14" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="L14" s="3" cm="1">
         <f t="array" ref="L14:N14">VLOOKUP(K14,$A$2:$D$22,{2,3,4})</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M14" s="1">
+        <v>16</v>
+      </c>
+      <c r="N14" s="4">
         <v>15</v>
       </c>
-      <c r="N14" s="4">
-        <v>12</v>
-      </c>
       <c r="O14" s="3">
-        <f t="shared" si="10"/>
-        <v>102</v>
+        <f t="shared" si="7"/>
+        <v>118</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="3"/>
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q14" s="4">
-        <f t="shared" si="4"/>
-        <v>189</v>
+        <f t="shared" si="3"/>
+        <v>215</v>
       </c>
       <c r="R14" s="3">
+        <f t="shared" si="4"/>
+        <v>136</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="T14" s="4">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="V14">
         <f t="shared" si="5"/>
-        <v>116</v>
-      </c>
-      <c r="S14" s="1">
-        <f t="shared" si="6"/>
-        <v>147</v>
-      </c>
-      <c r="T14" s="4">
-        <f t="shared" si="7"/>
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1428,7 +1614,7 @@
         <v>26</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="G15">
@@ -1436,52 +1622,64 @@
         <v>39</v>
       </c>
       <c r="H15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="I15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="K15" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="L15" s="3" cm="1">
         <f t="array" ref="L15:N15">VLOOKUP(K15,$A$2:$D$22,{2,3,4})</f>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M15" s="1">
+        <v>15</v>
+      </c>
+      <c r="N15" s="4">
         <v>12</v>
       </c>
-      <c r="N15" s="4">
-        <v>25</v>
-      </c>
       <c r="O15" s="3">
-        <f t="shared" si="10"/>
-        <v>116</v>
+        <f t="shared" si="7"/>
+        <v>136</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" si="3"/>
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q15" s="4">
-        <f t="shared" si="4"/>
-        <v>201</v>
+        <f t="shared" si="3"/>
+        <v>230</v>
       </c>
       <c r="R15" s="3">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+      <c r="T15" s="4">
+        <f t="shared" si="0"/>
+        <v>242</v>
+      </c>
+      <c r="V15">
         <f t="shared" si="5"/>
-        <v>137</v>
-      </c>
-      <c r="S15" s="1">
-        <f t="shared" si="6"/>
-        <v>159</v>
-      </c>
-      <c r="T15" s="4">
-        <f t="shared" si="7"/>
-        <v>226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1495,7 +1693,7 @@
         <v>9</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="G16">
@@ -1503,52 +1701,64 @@
         <v>24</v>
       </c>
       <c r="H16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="I16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="K16" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L16" s="3" cm="1">
         <f t="array" ref="L16:N16">VLOOKUP(K16,$A$2:$D$22,{2,3,4})</f>
         <v>18</v>
       </c>
       <c r="M16" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N16" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O16" s="3">
-        <f t="shared" si="10"/>
-        <v>137</v>
+        <f t="shared" si="7"/>
+        <v>150</v>
       </c>
       <c r="P16" s="1">
         <f t="shared" si="3"/>
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="Q16" s="4">
-        <f t="shared" si="4"/>
-        <v>226</v>
+        <f t="shared" si="3"/>
+        <v>242</v>
       </c>
       <c r="R16" s="3">
+        <f t="shared" si="4"/>
+        <v>168</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="T16" s="4">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="V16">
         <f t="shared" si="5"/>
-        <v>155</v>
-      </c>
-      <c r="S16" s="1">
-        <f t="shared" si="6"/>
-        <v>175</v>
-      </c>
-      <c r="T16" s="4">
-        <f t="shared" si="7"/>
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1562,7 +1772,7 @@
         <v>15</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="G17">
@@ -1570,52 +1780,64 @@
         <v>31</v>
       </c>
       <c r="H17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="I17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="K17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L17" s="3" cm="1">
         <f t="array" ref="L17:N17">VLOOKUP(K17,$A$2:$D$22,{2,3,4})</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M17" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N17" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O17" s="3">
-        <f t="shared" si="10"/>
-        <v>155</v>
+        <f t="shared" si="7"/>
+        <v>168</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" si="3"/>
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="Q17" s="4">
-        <f t="shared" si="4"/>
-        <v>241</v>
+        <f t="shared" si="3"/>
+        <v>252</v>
       </c>
       <c r="R17" s="3">
+        <f t="shared" si="4"/>
+        <v>187</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+      <c r="T17" s="4">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="V17">
         <f t="shared" si="5"/>
-        <v>173</v>
-      </c>
-      <c r="S17" s="1">
-        <f t="shared" si="6"/>
-        <v>192</v>
-      </c>
-      <c r="T17" s="4">
-        <f t="shared" si="7"/>
-        <v>251</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1629,7 +1851,7 @@
         <v>25</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="G18">
@@ -1637,52 +1859,64 @@
         <v>37</v>
       </c>
       <c r="H18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="I18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="K18" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="L18" s="3" cm="1">
         <f t="array" ref="L18:N18">VLOOKUP(K18,$A$2:$D$22,{2,3,4})</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M18" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N18" s="4">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="O18" s="3">
-        <f t="shared" si="10"/>
-        <v>173</v>
+        <f t="shared" si="7"/>
+        <v>187</v>
       </c>
       <c r="P18" s="1">
         <f t="shared" si="3"/>
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="Q18" s="4">
-        <f t="shared" si="4"/>
-        <v>251</v>
+        <f t="shared" si="3"/>
+        <v>260</v>
       </c>
       <c r="R18" s="3">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="0"/>
+        <v>218</v>
+      </c>
+      <c r="T18" s="4">
+        <f t="shared" si="0"/>
+        <v>269</v>
+      </c>
+      <c r="V18">
         <f t="shared" si="5"/>
-        <v>187</v>
-      </c>
-      <c r="S18" s="1">
-        <f t="shared" si="6"/>
-        <v>204</v>
-      </c>
-      <c r="T18" s="4">
-        <f t="shared" si="7"/>
-        <v>268</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1696,7 +1930,7 @@
         <v>13</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="G19">
@@ -1704,52 +1938,64 @@
         <v>18</v>
       </c>
       <c r="H19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="I19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="K19" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L19" s="3" cm="1">
         <f t="array" ref="L19:N19">VLOOKUP(K19,$A$2:$D$22,{2,3,4})</f>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="M19" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N19" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O19" s="3">
-        <f t="shared" si="10"/>
-        <v>187</v>
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" si="3"/>
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="Q19" s="4">
-        <f t="shared" si="4"/>
-        <v>268</v>
+        <f t="shared" si="3"/>
+        <v>269</v>
       </c>
       <c r="R19" s="3">
+        <f t="shared" si="4"/>
+        <v>210</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" si="4"/>
+        <v>231</v>
+      </c>
+      <c r="T19" s="4">
+        <f t="shared" si="4"/>
+        <v>275</v>
+      </c>
+      <c r="V19">
         <f t="shared" si="5"/>
-        <v>206</v>
-      </c>
-      <c r="S19" s="1">
-        <f t="shared" si="6"/>
-        <v>222</v>
-      </c>
-      <c r="T19" s="4">
-        <f t="shared" si="7"/>
-        <v>276</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <f t="shared" ref="W19:W21" si="8">-S19+P20</f>
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <f t="shared" ref="X19:X21" si="9">-T19+Q20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1763,7 +2009,7 @@
         <v>16</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G20">
@@ -1771,52 +2017,64 @@
         <v>21</v>
       </c>
       <c r="H20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="I20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="K20" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L20" s="3" cm="1">
         <f t="array" ref="L20:N20">VLOOKUP(K20,$A$2:$D$22,{2,3,4})</f>
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M20" s="1">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N20" s="4">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="O20" s="3">
-        <f t="shared" si="10"/>
-        <v>206</v>
+        <f t="shared" si="7"/>
+        <v>210</v>
       </c>
       <c r="P20" s="1">
         <f t="shared" si="3"/>
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="4">
-        <f t="shared" si="4"/>
-        <v>276</v>
+        <f t="shared" si="3"/>
+        <v>275</v>
       </c>
       <c r="R20" s="3">
+        <f t="shared" si="4"/>
+        <v>231</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" si="4"/>
+        <v>236</v>
+      </c>
+      <c r="T20" s="4">
+        <f t="shared" si="4"/>
+        <v>288</v>
+      </c>
+      <c r="V20">
         <f t="shared" si="5"/>
-        <v>216</v>
-      </c>
-      <c r="S20" s="1">
-        <f t="shared" si="6"/>
-        <v>235</v>
-      </c>
-      <c r="T20" s="4">
-        <f t="shared" si="7"/>
-        <v>282</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1830,7 +2088,7 @@
         <v>21</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="G21">
@@ -1838,52 +2096,64 @@
         <v>37</v>
       </c>
       <c r="H21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="I21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="K21" s="2">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="L21" s="3" cm="1">
         <f t="array" ref="L21:N21">VLOOKUP(K21,$A$2:$D$22,{2,3,4})</f>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="M21" s="1">
+        <v>6</v>
+      </c>
+      <c r="N21" s="4">
         <v>5</v>
       </c>
-      <c r="N21" s="4">
-        <v>13</v>
-      </c>
       <c r="O21" s="3">
-        <f t="shared" si="10"/>
-        <v>216</v>
+        <f t="shared" si="7"/>
+        <v>231</v>
       </c>
       <c r="P21" s="1">
         <f t="shared" si="3"/>
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q21" s="4">
-        <f t="shared" si="4"/>
-        <v>282</v>
+        <f t="shared" si="3"/>
+        <v>288</v>
       </c>
       <c r="R21" s="3">
+        <f t="shared" si="4"/>
+        <v>243</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="4"/>
+        <v>249</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" si="4"/>
+        <v>293</v>
+      </c>
+      <c r="V21">
         <f t="shared" si="5"/>
-        <v>237</v>
-      </c>
-      <c r="S21" s="1">
-        <f t="shared" si="6"/>
-        <v>242</v>
-      </c>
-      <c r="T21" s="4">
-        <f t="shared" si="7"/>
-        <v>295</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1897,7 +2167,7 @@
         <v>14</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="G22">
@@ -1905,60 +2175,118 @@
         <v>27</v>
       </c>
       <c r="H22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="I22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="K22" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L22" s="3" cm="1">
         <f t="array" ref="L22:N22">VLOOKUP(K22,$A$2:$D$22,{2,3,4})</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M22" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N22" s="4">
         <v>5</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" si="10"/>
-        <v>237</v>
+        <f t="shared" si="7"/>
+        <v>243</v>
       </c>
       <c r="P22" s="1">
         <f t="shared" si="3"/>
         <v>249</v>
       </c>
       <c r="Q22" s="4">
-        <f t="shared" si="4"/>
-        <v>295</v>
+        <f t="shared" si="3"/>
+        <v>293</v>
       </c>
       <c r="R22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>249</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" si="6"/>
-        <v>255</v>
+        <f t="shared" si="4"/>
+        <v>254</v>
       </c>
       <c r="T22" s="4">
         <f>Q22+N22</f>
-        <v>300</v>
+        <v>298</v>
+      </c>
+      <c r="Y22">
+        <f>SUM(V3:X21)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>MIN(B3:B22)</f>
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <f>MAX(C3:C22)</f>
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <f>MIN(D3:D22)</f>
+        <v>5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B24" t="b">
+        <f>B23&gt;=C23</f>
+        <v>0</v>
+      </c>
+      <c r="C24" t="b">
+        <f>D23&gt;=C23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <f t="shared" ref="O25:S25" si="10">AVERAGE(O3:O22)</f>
+        <v>104.85</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="10"/>
+        <v>121.75</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="10"/>
+        <v>170.55</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="10"/>
+        <v>117.3</v>
+      </c>
+      <c r="S25">
+        <f>AVERAGE(S3:S22)</f>
+        <v>133.65</v>
+      </c>
+      <c r="T25">
+        <f>AVERAGE(T3:T22)</f>
+        <v>184.8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:T2"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:I22">
     <cfRule type="colorScale" priority="1">
@@ -1978,22 +2306,1376 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9521484-E95B-460D-98AB-389FD2BEA4C6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="G1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="9"/>
+      <c r="P2">
+        <f>MAX(M3:O22)</f>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" cm="1">
+        <f t="array" ref="G3:I3">VLOOKUP(F3,$A$2:$D$22,{2,3,4})</f>
+        <v>4</v>
+      </c>
+      <c r="H3" s="1">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4">
+        <v>13</v>
+      </c>
+      <c r="J3" s="3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <f>MAX(M3,N2)</f>
+        <v>4</v>
+      </c>
+      <c r="L3" s="4">
+        <f>MAX(N3,O2)</f>
+        <v>13</v>
+      </c>
+      <c r="M3" s="3">
+        <f>J3+G3</f>
+        <v>4</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:O18" si="0">K3+H3</f>
+        <v>13</v>
+      </c>
+      <c r="O3" s="4">
+        <f>L3+I3</f>
+        <v>26</v>
+      </c>
+      <c r="Q3">
+        <f>-M3+J4</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:S18" si="1">-N3+K4</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" cm="1">
+        <f t="array" ref="G4:I4">VLOOKUP(F4,$A$2:$D$22,{2,3,4})</f>
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4">
+        <v>5</v>
+      </c>
+      <c r="J4" s="3">
+        <f>M3</f>
+        <v>4</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" ref="K4:L22" si="2">MAX(M4,N3)</f>
+        <v>13</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" ref="M4:O22" si="3">J4+G4</f>
+        <v>10</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:S21" si="4">-M4+J5</f>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3" cm="1">
+        <f t="array" ref="G5:I5">VLOOKUP(F5,$A$2:$D$22,{2,3,4})</f>
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>13</v>
+      </c>
+      <c r="I5" s="4">
+        <v>26</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" ref="J5:J22" si="5">M4</f>
+        <v>10</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3" cm="1">
+        <f t="array" ref="G6:I6">VLOOKUP(F6,$A$2:$D$22,{2,3,4})</f>
+        <v>12</v>
+      </c>
+      <c r="H6" s="1">
+        <v>6</v>
+      </c>
+      <c r="I6" s="4">
+        <v>5</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3" cm="1">
+        <f t="array" ref="G7:I7">VLOOKUP(F7,$A$2:$D$22,{2,3,4})</f>
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
+        <v>13</v>
+      </c>
+      <c r="I7" s="4">
+        <v>6</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f>-N7+K8</f>
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2">
+        <v>18</v>
+      </c>
+      <c r="G8" s="3" cm="1">
+        <f t="array" ref="G8:I8">VLOOKUP(F8,$A$2:$D$22,{2,3,4})</f>
+        <v>15</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
+      <c r="I8" s="4">
+        <v>16</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3" cm="1">
+        <f t="array" ref="G9:I9">VLOOKUP(F9,$A$2:$D$22,{2,3,4})</f>
+        <v>7</v>
+      </c>
+      <c r="H9" s="1">
+        <v>12</v>
+      </c>
+      <c r="I9" s="4">
+        <v>11</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2">
+        <v>20</v>
+      </c>
+      <c r="G10" s="3" cm="1">
+        <f t="array" ref="G10:I10">VLOOKUP(F10,$A$2:$D$22,{2,3,4})</f>
+        <v>8</v>
+      </c>
+      <c r="H10" s="1">
+        <v>13</v>
+      </c>
+      <c r="I10" s="4">
+        <v>14</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3" cm="1">
+        <f t="array" ref="G11:I11">VLOOKUP(F11,$A$2:$D$22,{2,3,4})</f>
+        <v>13</v>
+      </c>
+      <c r="H11" s="1">
+        <v>15</v>
+      </c>
+      <c r="I11" s="4">
+        <v>9</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" cm="1">
+        <f t="array" ref="G12:I12">VLOOKUP(F12,$A$2:$D$22,{2,3,4})</f>
+        <v>14</v>
+      </c>
+      <c r="H12" s="1">
+        <v>12</v>
+      </c>
+      <c r="I12" s="4">
+        <v>17</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="F13" s="2">
+        <v>7</v>
+      </c>
+      <c r="G13" s="3" cm="1">
+        <f t="array" ref="G13:I13">VLOOKUP(F13,$A$2:$D$22,{2,3,4})</f>
+        <v>11</v>
+      </c>
+      <c r="H13" s="1">
+        <v>10</v>
+      </c>
+      <c r="I13" s="4">
+        <v>19</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2">
+        <v>19</v>
+      </c>
+      <c r="G14" s="3" cm="1">
+        <f t="array" ref="G14:I14">VLOOKUP(F14,$A$2:$D$22,{2,3,4})</f>
+        <v>7</v>
+      </c>
+      <c r="H14" s="1">
+        <v>16</v>
+      </c>
+      <c r="I14" s="4">
+        <v>21</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="5"/>
+        <v>104</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>26</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3" cm="1">
+        <f t="array" ref="G15:I15">VLOOKUP(F15,$A$2:$D$22,{2,3,4})</f>
+        <v>14</v>
+      </c>
+      <c r="H15" s="1">
+        <v>15</v>
+      </c>
+      <c r="I15" s="4">
+        <v>12</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="5"/>
+        <v>111</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" si="0"/>
+        <v>187</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2">
+        <v>6</v>
+      </c>
+      <c r="G16" s="3" cm="1">
+        <f t="array" ref="G16:I16">VLOOKUP(F16,$A$2:$D$22,{2,3,4})</f>
+        <v>13</v>
+      </c>
+      <c r="H16" s="1">
+        <v>15</v>
+      </c>
+      <c r="I16" s="4">
+        <v>19</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="5"/>
+        <v>125</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="3"/>
+        <v>138</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" si="0"/>
+        <v>206</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="F17" s="2">
+        <v>17</v>
+      </c>
+      <c r="G17" s="3" cm="1">
+        <f t="array" ref="G17:I17">VLOOKUP(F17,$A$2:$D$22,{2,3,4})</f>
+        <v>21</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5</v>
+      </c>
+      <c r="I17" s="4">
+        <v>13</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="5"/>
+        <v>138</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="2"/>
+        <v>206</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="3"/>
+        <v>159</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="0"/>
+        <v>219</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>25</v>
+      </c>
+      <c r="F18" s="2">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" cm="1">
+        <f t="array" ref="G18:I18">VLOOKUP(F18,$A$2:$D$22,{2,3,4})</f>
+        <v>18</v>
+      </c>
+      <c r="H18" s="1">
+        <v>17</v>
+      </c>
+      <c r="I18" s="4">
+        <v>10</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="5"/>
+        <v>159</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="2"/>
+        <v>219</v>
+      </c>
+      <c r="M18" s="3">
+        <f t="shared" si="3"/>
+        <v>177</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="0"/>
+        <v>194</v>
+      </c>
+      <c r="O18" s="4">
+        <f t="shared" si="0"/>
+        <v>229</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f>-N18+K19</f>
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2">
+        <v>4</v>
+      </c>
+      <c r="G19" s="3" cm="1">
+        <f t="array" ref="G19:I19">VLOOKUP(F19,$A$2:$D$22,{2,3,4})</f>
+        <v>19</v>
+      </c>
+      <c r="H19" s="1">
+        <v>16</v>
+      </c>
+      <c r="I19" s="4">
+        <v>8</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="5"/>
+        <v>177</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="2"/>
+        <v>196</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" si="2"/>
+        <v>229</v>
+      </c>
+      <c r="M19" s="3">
+        <f t="shared" si="3"/>
+        <v>196</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="3"/>
+        <v>212</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" si="3"/>
+        <v>237</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>16</v>
+      </c>
+      <c r="F20" s="2">
+        <v>15</v>
+      </c>
+      <c r="G20" s="3" cm="1">
+        <f t="array" ref="G20:I20">VLOOKUP(F20,$A$2:$D$22,{2,3,4})</f>
+        <v>18</v>
+      </c>
+      <c r="H20" s="1">
+        <v>16</v>
+      </c>
+      <c r="I20" s="4">
+        <v>15</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="5"/>
+        <v>196</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="2"/>
+        <v>214</v>
+      </c>
+      <c r="L20" s="4">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" si="3"/>
+        <v>214</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="3"/>
+        <v>230</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" si="3"/>
+        <v>252</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>21</v>
+      </c>
+      <c r="F21" s="2">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3" cm="1">
+        <f t="array" ref="G21:I21">VLOOKUP(F21,$A$2:$D$22,{2,3,4})</f>
+        <v>14</v>
+      </c>
+      <c r="H21" s="1">
+        <v>13</v>
+      </c>
+      <c r="I21" s="4">
+        <v>21</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="5"/>
+        <v>214</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="2"/>
+        <v>230</v>
+      </c>
+      <c r="L21" s="4">
+        <f t="shared" si="2"/>
+        <v>252</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="3"/>
+        <v>243</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" si="3"/>
+        <v>273</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>14</v>
+      </c>
+      <c r="F22" s="2">
+        <v>16</v>
+      </c>
+      <c r="G22" s="3" cm="1">
+        <f t="array" ref="G22:I22">VLOOKUP(F22,$A$2:$D$22,{2,3,4})</f>
+        <v>21</v>
+      </c>
+      <c r="H22" s="1">
+        <v>12</v>
+      </c>
+      <c r="I22" s="4">
+        <v>25</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="5"/>
+        <v>228</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="2"/>
+        <v>249</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="2"/>
+        <v>273</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="3"/>
+        <v>249</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="3"/>
+        <v>261</v>
+      </c>
+      <c r="O22" s="4">
+        <f>L22+I22</f>
+        <v>298</v>
+      </c>
+      <c r="T22">
+        <f>SUM(Q3:S21)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <f t="shared" ref="J25:N25" si="6">AVERAGE(J3:J22)</f>
+        <v>94.45</v>
+      </c>
+      <c r="K25">
+        <f>AVERAGE(K3:K22)</f>
+        <v>110.6</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="6"/>
+        <v>136.5</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="6"/>
+        <v>106.9</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="6"/>
+        <v>122.5</v>
+      </c>
+      <c r="O25">
+        <f>AVERAGE(O3:O22)</f>
+        <v>150.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E035539-F012-41F4-8400-477C5B31206E}">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T26" sqref="A1:T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2009,7 +3691,7 @@
     <col min="31" max="31" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F1"/>
       <c r="G1" s="11" t="s">
         <v>13</v>
@@ -2026,11 +3708,11 @@
       </c>
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
-      <c r="P1" s="12" t="s">
+      <c r="P1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2066,7 +3748,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2116,11 +3798,20 @@
         <f>L3+I3</f>
         <v>26</v>
       </c>
-      <c r="R3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <f>-M3+J4</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:S18" si="1">-N3+K4</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2151,15 +3842,15 @@
         <v>4</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:L22" si="1">MAX(M4,N3)</f>
+        <f t="shared" ref="K4:L22" si="2">MAX(M4,N3)</f>
         <v>13</v>
       </c>
       <c r="L4" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" ref="M4:O22" si="2">J4+G4</f>
+        <f t="shared" ref="M4:O22" si="3">J4+G4</f>
         <v>10</v>
       </c>
       <c r="N4" s="1">
@@ -2170,8 +3861,20 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <f t="shared" ref="Q4:S21" si="4">-M4+J5</f>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2198,19 +3901,19 @@
         <v>26</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" ref="J5:J22" si="3">M4</f>
+        <f t="shared" ref="J5:J22" si="5">M4</f>
         <v>10</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="L5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="N5" s="1">
@@ -2221,8 +3924,20 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2249,19 +3964,19 @@
         <v>5</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="L6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="N6" s="1">
@@ -2272,8 +3987,20 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2300,19 +4027,19 @@
         <v>6</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="L7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="M7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="N7" s="1">
@@ -2323,8 +4050,20 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f>-N7+K8</f>
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2351,19 +4090,19 @@
         <v>16</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="L8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="N8" s="1">
@@ -2374,8 +4113,20 @@
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2402,19 +4153,19 @@
         <v>11</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="N9" s="1">
@@ -2425,8 +4176,20 @@
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2453,19 +4216,19 @@
         <v>14</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="N10" s="1">
@@ -2476,8 +4239,20 @@
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2504,19 +4279,19 @@
         <v>9</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="N11" s="1">
@@ -2527,8 +4302,20 @@
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2555,19 +4342,19 @@
         <v>17</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>79</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>118</v>
       </c>
       <c r="M12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>93</v>
       </c>
       <c r="N12" s="1">
@@ -2578,8 +4365,20 @@
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2606,19 +4405,19 @@
         <v>19</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>93</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="N13" s="1">
@@ -2629,8 +4428,20 @@
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2657,19 +4468,19 @@
         <v>21</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>104</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="L14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>154</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
       <c r="N14" s="1">
@@ -2680,8 +4491,20 @@
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2708,19 +4531,19 @@
         <v>12</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>111</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>136</v>
       </c>
       <c r="L15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>175</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="N15" s="1">
@@ -2731,8 +4554,20 @@
         <f t="shared" si="0"/>
         <v>187</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2759,19 +4594,19 @@
         <v>19</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>125</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>151</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>187</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>138</v>
       </c>
       <c r="N16" s="1">
@@ -2782,8 +4617,20 @@
         <f t="shared" si="0"/>
         <v>206</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2810,19 +4657,19 @@
         <v>13</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>138</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>166</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>206</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>159</v>
       </c>
       <c r="N17" s="1">
@@ -2833,8 +4680,20 @@
         <f t="shared" si="0"/>
         <v>219</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2861,19 +4720,19 @@
         <v>10</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>159</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>177</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>219</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>177</v>
       </c>
       <c r="N18" s="1">
@@ -2884,8 +4743,20 @@
         <f t="shared" si="0"/>
         <v>229</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f>-N18+K19</f>
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2912,31 +4783,43 @@
         <v>8</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>177</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>196</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>229</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>196</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>212</v>
       </c>
       <c r="O19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>237</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2963,31 +4846,43 @@
         <v>15</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>196</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>214</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>237</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>214</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="O20" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>252</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3014,31 +4909,43 @@
         <v>21</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>214</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>252</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>228</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>243</v>
       </c>
       <c r="O21" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>273</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3065,28 +4972,58 @@
         <v>25</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>228</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>249</v>
       </c>
       <c r="L22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>273</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>249</v>
       </c>
       <c r="N22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>261</v>
       </c>
       <c r="O22" s="4">
         <f>L22+I22</f>
         <v>298</v>
+      </c>
+      <c r="T22">
+        <f>SUM(Q3:S21)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <f t="shared" ref="J25:N25" si="6">AVERAGE(J3:J22)</f>
+        <v>94.45</v>
+      </c>
+      <c r="K25">
+        <f>AVERAGE(K3:K22)</f>
+        <v>110.6</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="6"/>
+        <v>136.5</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="6"/>
+        <v>106.9</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="6"/>
+        <v>122.5</v>
+      </c>
+      <c r="O25">
+        <f>AVERAGE(O3:O22)</f>
+        <v>150.75</v>
       </c>
     </row>
   </sheetData>
@@ -3100,4 +5037,141 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD8F3F0-3573-404D-A215-6B0D608A39A9}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <f>'a)'!U2</f>
+        <v>298</v>
+      </c>
+      <c r="C2" cm="1">
+        <f t="array" ref="C2:H2">'a)'!O25:T25</f>
+        <v>104.85</v>
+      </c>
+      <c r="D2">
+        <v>121.75</v>
+      </c>
+      <c r="E2">
+        <v>170.55</v>
+      </c>
+      <c r="F2">
+        <v>117.3</v>
+      </c>
+      <c r="G2">
+        <v>133.65</v>
+      </c>
+      <c r="H2">
+        <v>184.8</v>
+      </c>
+      <c r="I2">
+        <f>'a)'!Y22</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <f>'b)'!P2</f>
+        <v>298</v>
+      </c>
+      <c r="C3" cm="1">
+        <f t="array" ref="C3:H3">'b)'!J25:O25</f>
+        <v>94.45</v>
+      </c>
+      <c r="D3">
+        <v>110.6</v>
+      </c>
+      <c r="E3">
+        <v>136.5</v>
+      </c>
+      <c r="F3">
+        <v>106.9</v>
+      </c>
+      <c r="G3">
+        <v>122.5</v>
+      </c>
+      <c r="H3">
+        <v>150.75</v>
+      </c>
+      <c r="I3">
+        <f>'b)'!T22</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <f>'c)'!P2</f>
+        <v>298</v>
+      </c>
+      <c r="C4" cm="1">
+        <f t="array" ref="C4:H4">'c)'!J25:O25</f>
+        <v>94.45</v>
+      </c>
+      <c r="D4">
+        <v>110.6</v>
+      </c>
+      <c r="E4">
+        <v>136.5</v>
+      </c>
+      <c r="F4">
+        <v>106.9</v>
+      </c>
+      <c r="G4">
+        <v>122.5</v>
+      </c>
+      <c r="H4">
+        <v>150.75</v>
+      </c>
+      <c r="I4">
+        <f>'c)'!T22</f>
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>